--- a/results/USHTG_rate_and_features_NA_removed.xlsx
+++ b/results/USHTG_rate_and_features_NA_removed.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>US_IMP_HT</t>
-  </si>
-  <si>
-    <t>US_EXP_HT</t>
   </si>
   <si>
     <t>end_rate</t>
@@ -34,211 +28,25 @@
     <t>rec_rem</t>
   </si>
   <si>
+    <t>us_imp_ht</t>
+  </si>
+  <si>
+    <t>us_exp_ht</t>
+  </si>
+  <si>
     <t>int_reg_deb</t>
   </si>
   <si>
     <t>int_reg_emb</t>
-  </si>
-  <si>
-    <t>2014M1</t>
-  </si>
-  <si>
-    <t>2014M2</t>
-  </si>
-  <si>
-    <t>2014M3</t>
-  </si>
-  <si>
-    <t>2014M4</t>
-  </si>
-  <si>
-    <t>2014M5</t>
-  </si>
-  <si>
-    <t>2014M6</t>
-  </si>
-  <si>
-    <t>2014M7</t>
-  </si>
-  <si>
-    <t>2014M8</t>
-  </si>
-  <si>
-    <t>2014M9</t>
-  </si>
-  <si>
-    <t>2014M10</t>
-  </si>
-  <si>
-    <t>2014M11</t>
-  </si>
-  <si>
-    <t>2014M12</t>
-  </si>
-  <si>
-    <t>2015M1</t>
-  </si>
-  <si>
-    <t>2015M2</t>
-  </si>
-  <si>
-    <t>2015M3</t>
-  </si>
-  <si>
-    <t>2015M4</t>
-  </si>
-  <si>
-    <t>2015M5</t>
-  </si>
-  <si>
-    <t>2015M6</t>
-  </si>
-  <si>
-    <t>2015M7</t>
-  </si>
-  <si>
-    <t>2015M8</t>
-  </si>
-  <si>
-    <t>2015M9</t>
-  </si>
-  <si>
-    <t>2015M10</t>
-  </si>
-  <si>
-    <t>2015M11</t>
-  </si>
-  <si>
-    <t>2015M12</t>
-  </si>
-  <si>
-    <t>2016M1</t>
-  </si>
-  <si>
-    <t>2016M2</t>
-  </si>
-  <si>
-    <t>2016M3</t>
-  </si>
-  <si>
-    <t>2016M4</t>
-  </si>
-  <si>
-    <t>2016M5</t>
-  </si>
-  <si>
-    <t>2016M6</t>
-  </si>
-  <si>
-    <t>2016M7</t>
-  </si>
-  <si>
-    <t>2016M8</t>
-  </si>
-  <si>
-    <t>2016M9</t>
-  </si>
-  <si>
-    <t>2016M10</t>
-  </si>
-  <si>
-    <t>2016M11</t>
-  </si>
-  <si>
-    <t>2016M12</t>
-  </si>
-  <si>
-    <t>2017M1</t>
-  </si>
-  <si>
-    <t>2017M2</t>
-  </si>
-  <si>
-    <t>2017M3</t>
-  </si>
-  <si>
-    <t>2017M4</t>
-  </si>
-  <si>
-    <t>2017M5</t>
-  </si>
-  <si>
-    <t>2017M6</t>
-  </si>
-  <si>
-    <t>2017M7</t>
-  </si>
-  <si>
-    <t>2017M8</t>
-  </si>
-  <si>
-    <t>2017M9</t>
-  </si>
-  <si>
-    <t>2017M10</t>
-  </si>
-  <si>
-    <t>2017M11</t>
-  </si>
-  <si>
-    <t>2017M12</t>
-  </si>
-  <si>
-    <t>2018M1</t>
-  </si>
-  <si>
-    <t>2018M2</t>
-  </si>
-  <si>
-    <t>2018M3</t>
-  </si>
-  <si>
-    <t>2018M4</t>
-  </si>
-  <si>
-    <t>2018M5</t>
-  </si>
-  <si>
-    <t>2018M6</t>
-  </si>
-  <si>
-    <t>2018M7</t>
-  </si>
-  <si>
-    <t>2018M8</t>
-  </si>
-  <si>
-    <t>2018M9</t>
-  </si>
-  <si>
-    <t>2018M10</t>
-  </si>
-  <si>
-    <t>2018M11</t>
-  </si>
-  <si>
-    <t>2018M12</t>
-  </si>
-  <si>
-    <t>2019M1</t>
-  </si>
-  <si>
-    <t>2019M2</t>
-  </si>
-  <si>
-    <t>2019M3</t>
-  </si>
-  <si>
-    <t>2019M4</t>
-  </si>
-  <si>
-    <t>2019M5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -291,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,23 +435,23 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="2">
+        <v>41670</v>
       </c>
       <c r="C2">
+        <v>44.0151</v>
+      </c>
+      <c r="D2">
+        <v>3.37078651685394</v>
+      </c>
+      <c r="E2">
+        <v>133903979.5068493</v>
+      </c>
+      <c r="F2">
         <v>44843398</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>98991983</v>
-      </c>
-      <c r="E2">
-        <v>44.0151</v>
-      </c>
-      <c r="F2">
-        <v>3.37078651685394</v>
-      </c>
-      <c r="G2">
-        <v>133903979.5068493</v>
       </c>
       <c r="H2">
         <v>44891</v>
@@ -655,23 +464,23 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3" s="2">
+        <v>41698</v>
       </c>
       <c r="C3">
+        <v>44.3479</v>
+      </c>
+      <c r="D3">
+        <v>3.21011673151751</v>
+      </c>
+      <c r="E3">
+        <v>167977161.2739726</v>
+      </c>
+      <c r="F3">
         <v>72252658</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>79821039</v>
-      </c>
-      <c r="E3">
-        <v>44.3479</v>
-      </c>
-      <c r="F3">
-        <v>3.21011673151751</v>
-      </c>
-      <c r="G3">
-        <v>167977161.2739726</v>
       </c>
       <c r="H3">
         <v>41446</v>
@@ -684,23 +493,23 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" s="2">
+        <v>41729</v>
       </c>
       <c r="C4">
+        <v>44.7062</v>
+      </c>
+      <c r="D4">
+        <v>3.23984526112185</v>
+      </c>
+      <c r="E4">
+        <v>196582016.1780822</v>
+      </c>
+      <c r="F4">
         <v>67067494.99999999</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>128131695</v>
-      </c>
-      <c r="E4">
-        <v>44.7062</v>
-      </c>
-      <c r="F4">
-        <v>3.23984526112185</v>
-      </c>
-      <c r="G4">
-        <v>196582016.1780822</v>
       </c>
       <c r="H4">
         <v>52201</v>
@@ -713,23 +522,23 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5" s="2">
+        <v>41759</v>
       </c>
       <c r="C5">
+        <v>44.9934</v>
+      </c>
+      <c r="D5">
+        <v>3.46987951807228</v>
+      </c>
+      <c r="E5">
+        <v>179865524.9863014</v>
+      </c>
+      <c r="F5">
         <v>71276176</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>93306047</v>
-      </c>
-      <c r="E5">
-        <v>44.9934</v>
-      </c>
-      <c r="F5">
-        <v>3.46987951807228</v>
-      </c>
-      <c r="G5">
-        <v>179865524.9863014</v>
       </c>
       <c r="H5">
         <v>47486</v>
@@ -742,23 +551,23 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6" s="2">
+        <v>41790</v>
       </c>
       <c r="C6">
+        <v>44.3551</v>
+      </c>
+      <c r="D6">
+        <v>3.5256824556355</v>
+      </c>
+      <c r="E6">
+        <v>171248511.5068493</v>
+      </c>
+      <c r="F6">
         <v>76678909</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>128070198</v>
-      </c>
-      <c r="E6">
-        <v>44.3551</v>
-      </c>
-      <c r="F6">
-        <v>3.5256824556355</v>
-      </c>
-      <c r="G6">
-        <v>171248511.5068493</v>
       </c>
       <c r="H6">
         <v>42911</v>
@@ -771,23 +580,23 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7" s="2">
+        <v>41820</v>
       </c>
       <c r="C7">
+        <v>45.3399</v>
+      </c>
+      <c r="D7">
+        <v>4.17917812080537</v>
+      </c>
+      <c r="E7">
+        <v>154057557.3287671</v>
+      </c>
+      <c r="F7">
         <v>82203406</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>92763295</v>
-      </c>
-      <c r="E7">
-        <v>45.3399</v>
-      </c>
-      <c r="F7">
-        <v>4.17917812080537</v>
-      </c>
-      <c r="G7">
-        <v>154057557.3287671</v>
       </c>
       <c r="H7">
         <v>58957</v>
@@ -800,23 +609,23 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8" s="2">
+        <v>41851</v>
       </c>
       <c r="C8">
+        <v>45.3552</v>
+      </c>
+      <c r="D8">
+        <v>4.83716475095785</v>
+      </c>
+      <c r="E8">
+        <v>151854805.1917808</v>
+      </c>
+      <c r="F8">
         <v>78285810</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>103352398</v>
-      </c>
-      <c r="E8">
-        <v>45.3552</v>
-      </c>
-      <c r="F8">
-        <v>4.83716475095785</v>
-      </c>
-      <c r="G8">
-        <v>151854805.1917808</v>
       </c>
       <c r="H8">
         <v>75881</v>
@@ -829,23 +638,23 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="B9" s="2">
+        <v>41882</v>
       </c>
       <c r="C9">
+        <v>45.3829</v>
+      </c>
+      <c r="D9">
+        <v>5.06208213944603</v>
+      </c>
+      <c r="E9">
+        <v>161396905.6575343</v>
+      </c>
+      <c r="F9">
         <v>89364313</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>100059530</v>
-      </c>
-      <c r="E9">
-        <v>45.3829</v>
-      </c>
-      <c r="F9">
-        <v>5.06208213944603</v>
-      </c>
-      <c r="G9">
-        <v>161396905.6575343</v>
       </c>
       <c r="H9">
         <v>62060</v>
@@ -858,23 +667,23 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10" s="2">
+        <v>41912</v>
       </c>
       <c r="C10">
+        <v>45.5577</v>
+      </c>
+      <c r="D10">
+        <v>5.34351145038169</v>
+      </c>
+      <c r="E10">
+        <v>172774595.4383562</v>
+      </c>
+      <c r="F10">
         <v>88911131</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>101030612</v>
-      </c>
-      <c r="E10">
-        <v>45.5577</v>
-      </c>
-      <c r="F10">
-        <v>5.34351145038169</v>
-      </c>
-      <c r="G10">
-        <v>172774595.4383562</v>
       </c>
       <c r="H10">
         <v>42852</v>
@@ -887,23 +696,23 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
+      <c r="B11" s="2">
+        <v>41943</v>
       </c>
       <c r="C11">
+        <v>45.7572</v>
+      </c>
+      <c r="D11">
+        <v>5.75916230366492</v>
+      </c>
+      <c r="E11">
+        <v>167072313.8630137</v>
+      </c>
+      <c r="F11">
         <v>92463854</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>106696175</v>
-      </c>
-      <c r="E11">
-        <v>45.7572</v>
-      </c>
-      <c r="F11">
-        <v>5.75916230366492</v>
-      </c>
-      <c r="G11">
-        <v>167072313.8630137</v>
       </c>
       <c r="H11">
         <v>40501</v>
@@ -916,23 +725,23 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
+      <c r="B12" s="2">
+        <v>41973</v>
       </c>
       <c r="C12">
+        <v>46.5991</v>
+      </c>
+      <c r="D12">
+        <v>6.22919638611507</v>
+      </c>
+      <c r="E12">
+        <v>149456403.5068493</v>
+      </c>
+      <c r="F12">
         <v>71907412</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>123787899</v>
-      </c>
-      <c r="E12">
-        <v>46.5991</v>
-      </c>
-      <c r="F12">
-        <v>6.22919638611507</v>
-      </c>
-      <c r="G12">
-        <v>149456403.5068493</v>
       </c>
       <c r="H12">
         <v>40732</v>
@@ -945,23 +754,23 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
+      <c r="B13" s="2">
+        <v>42004</v>
       </c>
       <c r="C13">
+        <v>46.7477</v>
+      </c>
+      <c r="D13">
+        <v>6.44244433917574</v>
+      </c>
+      <c r="E13">
+        <v>219982090.8082192</v>
+      </c>
+      <c r="F13">
         <v>73105901</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>117728170</v>
-      </c>
-      <c r="E13">
-        <v>46.7477</v>
-      </c>
-      <c r="F13">
-        <v>6.44244433917574</v>
-      </c>
-      <c r="G13">
-        <v>219982090.8082192</v>
       </c>
       <c r="H13">
         <v>62434</v>
@@ -974,23 +783,23 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
+      <c r="B14" s="2">
+        <v>42035</v>
       </c>
       <c r="C14">
+        <v>46.9277</v>
+      </c>
+      <c r="D14">
+        <v>6.61625708884688</v>
+      </c>
+      <c r="E14">
+        <v>148346670.6164384</v>
+      </c>
+      <c r="F14">
         <v>48890471</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>83902383</v>
-      </c>
-      <c r="E14">
-        <v>46.9277</v>
-      </c>
-      <c r="F14">
-        <v>6.61625708884688</v>
-      </c>
-      <c r="G14">
-        <v>148346670.6164384</v>
       </c>
       <c r="H14">
         <v>46597</v>
@@ -1003,23 +812,23 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
+      <c r="B15" s="2">
+        <v>42063</v>
       </c>
       <c r="C15">
+        <v>47.1441</v>
+      </c>
+      <c r="D15">
+        <v>6.59754948162111</v>
+      </c>
+      <c r="E15">
+        <v>181476596.7808219</v>
+      </c>
+      <c r="F15">
         <v>70190729</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>64040774</v>
-      </c>
-      <c r="E15">
-        <v>47.1441</v>
-      </c>
-      <c r="F15">
-        <v>6.59754948162111</v>
-      </c>
-      <c r="G15">
-        <v>181476596.7808219</v>
       </c>
       <c r="H15">
         <v>42959</v>
@@ -1032,23 +841,23 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
+      <c r="B16" s="2">
+        <v>42094</v>
       </c>
       <c r="C16">
+        <v>47.1789</v>
+      </c>
+      <c r="D16">
+        <v>6.41686182669789</v>
+      </c>
+      <c r="E16">
+        <v>218044605.0821918</v>
+      </c>
+      <c r="F16">
         <v>80514316</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>108280309</v>
-      </c>
-      <c r="E16">
-        <v>47.1789</v>
-      </c>
-      <c r="F16">
-        <v>6.41686182669789</v>
-      </c>
-      <c r="G16">
-        <v>218044605.0821918</v>
       </c>
       <c r="H16">
         <v>52526</v>
@@ -1061,23 +870,23 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
+      <c r="B17" s="2">
+        <v>42124</v>
       </c>
       <c r="C17">
+        <v>47.3801</v>
+      </c>
+      <c r="D17">
+        <v>6.33442012109922</v>
+      </c>
+      <c r="E17">
+        <v>194077789.890411</v>
+      </c>
+      <c r="F17">
         <v>84828453</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>124233096</v>
-      </c>
-      <c r="E17">
-        <v>47.3801</v>
-      </c>
-      <c r="F17">
-        <v>6.33442012109922</v>
-      </c>
-      <c r="G17">
-        <v>194077789.890411</v>
       </c>
       <c r="H17">
         <v>45931</v>
@@ -1090,23 +899,23 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
+      <c r="B18" s="2">
+        <v>42155</v>
       </c>
       <c r="C18">
+        <v>48.1113</v>
+      </c>
+      <c r="D18">
+        <v>6.64761752063306</v>
+      </c>
+      <c r="E18">
+        <v>188773373.890411</v>
+      </c>
+      <c r="F18">
         <v>79915332</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>121689302</v>
-      </c>
-      <c r="E18">
-        <v>48.1113</v>
-      </c>
-      <c r="F18">
-        <v>6.64761752063306</v>
-      </c>
-      <c r="G18">
-        <v>188773373.890411</v>
       </c>
       <c r="H18">
         <v>45292</v>
@@ -1119,23 +928,23 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
+      <c r="B19" s="2">
+        <v>42185</v>
       </c>
       <c r="C19">
+        <v>51.5866</v>
+      </c>
+      <c r="D19">
+        <v>7.95251800765846</v>
+      </c>
+      <c r="E19">
+        <v>184240310.739726</v>
+      </c>
+      <c r="F19">
         <v>90479761</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>89203516</v>
-      </c>
-      <c r="E19">
-        <v>51.5866</v>
-      </c>
-      <c r="F19">
-        <v>7.95251800765846</v>
-      </c>
-      <c r="G19">
-        <v>184240310.739726</v>
       </c>
       <c r="H19">
         <v>57984</v>
@@ -1148,23 +957,23 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
+      <c r="B20" s="2">
+        <v>42216</v>
       </c>
       <c r="C20">
+        <v>55.2174</v>
+      </c>
+      <c r="D20">
+        <v>9.319323892188221</v>
+      </c>
+      <c r="E20">
+        <v>182156341.4931507</v>
+      </c>
+      <c r="F20">
         <v>90449862</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>104627957</v>
-      </c>
-      <c r="E20">
-        <v>55.2174</v>
-      </c>
-      <c r="F20">
-        <v>9.319323892188221</v>
-      </c>
-      <c r="G20">
-        <v>182156341.4931507</v>
       </c>
       <c r="H20">
         <v>70889</v>
@@ -1177,23 +986,23 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
+      <c r="B21" s="2">
+        <v>42247</v>
       </c>
       <c r="C21">
+        <v>51.6674</v>
+      </c>
+      <c r="D21">
+        <v>10.3636363636364</v>
+      </c>
+      <c r="E21">
+        <v>180748866.0410959</v>
+      </c>
+      <c r="F21">
         <v>86467542</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>79085464</v>
-      </c>
-      <c r="E21">
-        <v>51.6674</v>
-      </c>
-      <c r="F21">
-        <v>10.3636363636364</v>
-      </c>
-      <c r="G21">
-        <v>180748866.0410959</v>
       </c>
       <c r="H21">
         <v>61215</v>
@@ -1206,23 +1015,23 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
+      <c r="B22" s="2">
+        <v>42277</v>
       </c>
       <c r="C22">
+        <v>52.1417</v>
+      </c>
+      <c r="D22">
+        <v>11.2771739130435</v>
+      </c>
+      <c r="E22">
+        <v>181184864.4246575</v>
+      </c>
+      <c r="F22">
         <v>84533562</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>101528766</v>
-      </c>
-      <c r="E22">
-        <v>52.1417</v>
-      </c>
-      <c r="F22">
-        <v>11.2771739130435</v>
-      </c>
-      <c r="G22">
-        <v>181184864.4246575</v>
       </c>
       <c r="H22">
         <v>42540</v>
@@ -1235,23 +1044,23 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
+      <c r="B23" s="2">
+        <v>42308</v>
       </c>
       <c r="C23">
+        <v>53.7793</v>
+      </c>
+      <c r="D23">
+        <v>11.7011701170117</v>
+      </c>
+      <c r="E23">
+        <v>181511839.7808219</v>
+      </c>
+      <c r="F23">
         <v>82518894</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>69510651</v>
-      </c>
-      <c r="E23">
-        <v>53.7793</v>
-      </c>
-      <c r="F23">
-        <v>11.7011701170117</v>
-      </c>
-      <c r="G23">
-        <v>181511839.7808219</v>
       </c>
       <c r="H23">
         <v>38819</v>
@@ -1264,23 +1073,23 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
+      <c r="B24" s="2">
+        <v>42338</v>
       </c>
       <c r="C24">
+        <v>56.1368</v>
+      </c>
+      <c r="D24">
+        <v>11.9516562220233</v>
+      </c>
+      <c r="E24">
+        <v>162963998.8356164</v>
+      </c>
+      <c r="F24">
         <v>78545549</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>115353033</v>
-      </c>
-      <c r="E24">
-        <v>56.1368</v>
-      </c>
-      <c r="F24">
-        <v>11.9516562220233</v>
-      </c>
-      <c r="G24">
-        <v>162963998.8356164</v>
       </c>
       <c r="H24">
         <v>39258</v>
@@ -1293,23 +1102,23 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
+      <c r="B25" s="2">
+        <v>42369</v>
       </c>
       <c r="C25">
+        <v>56.697</v>
+      </c>
+      <c r="D25">
+        <v>12.5055629728527</v>
+      </c>
+      <c r="E25">
+        <v>239449416.2465753</v>
+      </c>
+      <c r="F25">
         <v>72757064</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>79114177</v>
-      </c>
-      <c r="E25">
-        <v>56.697</v>
-      </c>
-      <c r="F25">
-        <v>12.5055629728527</v>
-      </c>
-      <c r="G25">
-        <v>239449416.2465753</v>
       </c>
       <c r="H25">
         <v>54828</v>
@@ -1322,23 +1131,23 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
+      <c r="B26" s="2">
+        <v>42400</v>
       </c>
       <c r="C26">
+        <v>59.4546</v>
+      </c>
+      <c r="D26">
+        <v>13.2535460992908</v>
+      </c>
+      <c r="E26">
+        <v>153861298.7945206</v>
+      </c>
+      <c r="F26">
         <v>49786345</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>71440588</v>
-      </c>
-      <c r="E26">
-        <v>59.4546</v>
-      </c>
-      <c r="F26">
-        <v>13.2535460992908</v>
-      </c>
-      <c r="G26">
-        <v>153861298.7945206</v>
       </c>
       <c r="H26">
         <v>46014</v>
@@ -1351,23 +1160,23 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
+      <c r="B27" s="2">
+        <v>42429</v>
       </c>
       <c r="C27">
+        <v>61.4393</v>
+      </c>
+      <c r="D27">
+        <v>14.367816091954</v>
+      </c>
+      <c r="E27">
+        <v>199869024.3835616</v>
+      </c>
+      <c r="F27">
         <v>81273086</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>72100218</v>
-      </c>
-      <c r="E27">
-        <v>61.4393</v>
-      </c>
-      <c r="F27">
-        <v>14.367816091954</v>
-      </c>
-      <c r="G27">
-        <v>199869024.3835616</v>
       </c>
       <c r="H27">
         <v>38463</v>
@@ -1380,23 +1189,23 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
+      <c r="B28" s="2">
+        <v>42460</v>
       </c>
       <c r="C28">
+        <v>61.7627</v>
+      </c>
+      <c r="D28">
+        <v>14.8327464788732</v>
+      </c>
+      <c r="E28">
+        <v>237360295.0547945</v>
+      </c>
+      <c r="F28">
         <v>72792792</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>110431161</v>
-      </c>
-      <c r="E28">
-        <v>61.7627</v>
-      </c>
-      <c r="F28">
-        <v>14.8327464788732</v>
-      </c>
-      <c r="G28">
-        <v>237360295.0547945</v>
       </c>
       <c r="H28">
         <v>52150</v>
@@ -1409,23 +1218,23 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
+      <c r="B29" s="2">
+        <v>42490</v>
       </c>
       <c r="C29">
+        <v>61.9572</v>
+      </c>
+      <c r="D29">
+        <v>15.2431011826544</v>
+      </c>
+      <c r="E29">
+        <v>211291653.3150685</v>
+      </c>
+      <c r="F29">
         <v>75399208</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>71741370</v>
-      </c>
-      <c r="E29">
-        <v>61.9572</v>
-      </c>
-      <c r="F29">
-        <v>15.2431011826544</v>
-      </c>
-      <c r="G29">
-        <v>211291653.3150685</v>
       </c>
       <c r="H29">
         <v>42504</v>
@@ -1438,23 +1247,23 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
+      <c r="B30" s="2">
+        <v>42521</v>
       </c>
       <c r="C30">
+        <v>62.2054</v>
+      </c>
+      <c r="D30">
+        <v>15.0738488271069</v>
+      </c>
+      <c r="E30">
+        <v>202203082.109589</v>
+      </c>
+      <c r="F30">
         <v>84615558</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>99268371</v>
-      </c>
-      <c r="E30">
-        <v>62.2054</v>
-      </c>
-      <c r="F30">
-        <v>15.0738488271069</v>
-      </c>
-      <c r="G30">
-        <v>202203082.109589</v>
       </c>
       <c r="H30">
         <v>43989</v>
@@ -1467,23 +1276,23 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
+      <c r="B31" s="2">
+        <v>42551</v>
       </c>
       <c r="C31">
+        <v>62.8939</v>
+      </c>
+      <c r="D31">
+        <v>13.8959931798806</v>
+      </c>
+      <c r="E31">
+        <v>188938754.4109589</v>
+      </c>
+      <c r="F31">
         <v>77428895</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>106801582</v>
-      </c>
-      <c r="E31">
-        <v>62.8939</v>
-      </c>
-      <c r="F31">
-        <v>13.8959931798806</v>
-      </c>
-      <c r="G31">
-        <v>188938754.4109589</v>
       </c>
       <c r="H31">
         <v>60240</v>
@@ -1496,23 +1305,23 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
+      <c r="B32" s="2">
+        <v>42582</v>
       </c>
       <c r="C32">
+        <v>63.6545</v>
+      </c>
+      <c r="D32">
+        <v>12.912661930631</v>
+      </c>
+      <c r="E32">
+        <v>184656793.5616438</v>
+      </c>
+      <c r="F32">
         <v>82245204</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>89888083</v>
-      </c>
-      <c r="E32">
-        <v>63.6545</v>
-      </c>
-      <c r="F32">
-        <v>12.912661930631</v>
-      </c>
-      <c r="G32">
-        <v>184656793.5616438</v>
       </c>
       <c r="H32">
         <v>74956</v>
@@ -1525,23 +1334,23 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
+      <c r="B33" s="2">
+        <v>42613</v>
       </c>
       <c r="C33">
+        <v>64.88639999999999</v>
+      </c>
+      <c r="D33">
+        <v>12.3558484349259</v>
+      </c>
+      <c r="E33">
+        <v>197626087.3424658</v>
+      </c>
+      <c r="F33">
         <v>90896103</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>91198946</v>
-      </c>
-      <c r="E33">
-        <v>64.88639999999999</v>
-      </c>
-      <c r="F33">
-        <v>12.3558484349259</v>
-      </c>
-      <c r="G33">
-        <v>197626087.3424658</v>
       </c>
       <c r="H33">
         <v>68481</v>
@@ -1554,23 +1363,23 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
+      <c r="B34" s="2">
+        <v>42643</v>
       </c>
       <c r="C34">
+        <v>65.5368</v>
+      </c>
+      <c r="D34">
+        <v>12.4949124949125</v>
+      </c>
+      <c r="E34">
+        <v>198921096.0958904</v>
+      </c>
+      <c r="F34">
         <v>83734953</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>102331730</v>
-      </c>
-      <c r="E34">
-        <v>65.5368</v>
-      </c>
-      <c r="F34">
-        <v>12.4949124949125</v>
-      </c>
-      <c r="G34">
-        <v>198921096.0958904</v>
       </c>
       <c r="H34">
         <v>46434</v>
@@ -1583,23 +1392,23 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
+      <c r="B35" s="2">
+        <v>42674</v>
       </c>
       <c r="C35">
+        <v>66.3278</v>
+      </c>
+      <c r="D35">
+        <v>13.3360193392426</v>
+      </c>
+      <c r="E35">
+        <v>202261090.9034189</v>
+      </c>
+      <c r="F35">
         <v>73679983</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>113669342</v>
-      </c>
-      <c r="E35">
-        <v>66.3278</v>
-      </c>
-      <c r="F35">
-        <v>13.3360193392426</v>
-      </c>
-      <c r="G35">
-        <v>202261090.9034189</v>
       </c>
       <c r="H35">
         <v>38634</v>
@@ -1612,23 +1421,23 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
+      <c r="B36" s="2">
+        <v>42704</v>
       </c>
       <c r="C36">
+        <v>67.0629</v>
+      </c>
+      <c r="D36">
+        <v>14.1543382646941</v>
+      </c>
+      <c r="E36">
+        <v>183774417.7614919</v>
+      </c>
+      <c r="F36">
         <v>64437612</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>81435151</v>
-      </c>
-      <c r="E36">
-        <v>67.0629</v>
-      </c>
-      <c r="F36">
-        <v>14.1543382646941</v>
-      </c>
-      <c r="G36">
-        <v>183774417.7614919</v>
       </c>
       <c r="H36">
         <v>45561</v>
@@ -1641,23 +1450,23 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
+      <c r="B37" s="2">
+        <v>42735</v>
       </c>
       <c r="C37">
+        <v>67.3944</v>
+      </c>
+      <c r="D37">
+        <v>14.2800632911392</v>
+      </c>
+      <c r="E37">
+        <v>255760134.6992654</v>
+      </c>
+      <c r="F37">
         <v>62558452</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>80474421</v>
-      </c>
-      <c r="E37">
-        <v>67.3944</v>
-      </c>
-      <c r="F37">
-        <v>14.2800632911392</v>
-      </c>
-      <c r="G37">
-        <v>255760134.6992654</v>
       </c>
       <c r="H37">
         <v>64629</v>
@@ -1670,23 +1479,23 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
+      <c r="B38" s="2">
+        <v>42766</v>
       </c>
       <c r="C38">
+        <v>67.7976</v>
+      </c>
+      <c r="D38">
+        <v>14.1</v>
+      </c>
+      <c r="E38">
+        <v>172404954.2024431</v>
+      </c>
+      <c r="F38">
         <v>58805631</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>108958310</v>
-      </c>
-      <c r="E38">
-        <v>67.7976</v>
-      </c>
-      <c r="F38">
-        <v>14.1</v>
-      </c>
-      <c r="G38">
-        <v>172404954.2024431</v>
       </c>
       <c r="H38">
         <v>64629</v>
@@ -1699,23 +1508,23 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
+      <c r="B39" s="2">
+        <v>42794</v>
       </c>
       <c r="C39">
+        <v>68.33320000000001</v>
+      </c>
+      <c r="D39">
+        <v>13.9</v>
+      </c>
+      <c r="E39">
+        <v>195892436.495414</v>
+      </c>
+      <c r="F39">
         <v>73555140</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>95828023</v>
-      </c>
-      <c r="E39">
-        <v>68.33320000000001</v>
-      </c>
-      <c r="F39">
-        <v>13.9</v>
-      </c>
-      <c r="G39">
-        <v>195892436.495414</v>
       </c>
       <c r="H39">
         <v>40497</v>
@@ -1728,23 +1537,23 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
+      <c r="B40" s="2">
+        <v>42825</v>
       </c>
       <c r="C40">
+        <v>69.3523</v>
+      </c>
+      <c r="D40">
+        <v>14.3</v>
+      </c>
+      <c r="E40">
+        <v>266349418.2090813</v>
+      </c>
+      <c r="F40">
         <v>80094004</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>96133796</v>
-      </c>
-      <c r="E40">
-        <v>69.3523</v>
-      </c>
-      <c r="F40">
-        <v>14.3</v>
-      </c>
-      <c r="G40">
-        <v>266349418.2090813</v>
       </c>
       <c r="H40">
         <v>51337</v>
@@ -1757,23 +1566,23 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
+      <c r="B41" s="2">
+        <v>42855</v>
       </c>
       <c r="C41">
+        <v>67.60039999999999</v>
+      </c>
+      <c r="D41">
+        <v>14.6</v>
+      </c>
+      <c r="E41">
+        <v>234592439.3492678</v>
+      </c>
+      <c r="F41">
         <v>84046759</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>125464552</v>
-      </c>
-      <c r="E41">
-        <v>67.60039999999999</v>
-      </c>
-      <c r="F41">
-        <v>14.6</v>
-      </c>
-      <c r="G41">
-        <v>234592439.3492678</v>
       </c>
       <c r="H41">
         <v>49770</v>
@@ -1786,23 +1595,23 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
+      <c r="B42" s="2">
+        <v>42886</v>
       </c>
       <c r="C42">
+        <v>62.2023</v>
+      </c>
+      <c r="D42">
+        <v>15.5</v>
+      </c>
+      <c r="E42">
+        <v>229477136.6407627</v>
+      </c>
+      <c r="F42">
         <v>77156637</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>104154905</v>
-      </c>
-      <c r="E42">
-        <v>62.2023</v>
-      </c>
-      <c r="F42">
-        <v>15.5</v>
-      </c>
-      <c r="G42">
-        <v>229477136.6407627</v>
       </c>
       <c r="H42">
         <v>44235</v>
@@ -1815,23 +1624,23 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
+      <c r="B43" s="2">
+        <v>42916</v>
       </c>
       <c r="C43">
+        <v>62.3516</v>
+      </c>
+      <c r="D43">
+        <v>15.8</v>
+      </c>
+      <c r="E43">
+        <v>215145870.4777206</v>
+      </c>
+      <c r="F43">
         <v>75411078</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>118627636</v>
-      </c>
-      <c r="E43">
-        <v>62.3516</v>
-      </c>
-      <c r="F43">
-        <v>15.8</v>
-      </c>
-      <c r="G43">
-        <v>215145870.4777206</v>
       </c>
       <c r="H43">
         <v>59274</v>
@@ -1844,23 +1653,23 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
+      <c r="B44" s="2">
+        <v>42947</v>
       </c>
       <c r="C44">
+        <v>62.4717</v>
+      </c>
+      <c r="D44">
+        <v>15.6</v>
+      </c>
+      <c r="E44">
+        <v>223492676.177157</v>
+      </c>
+      <c r="F44">
         <v>75591675</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>148315974</v>
-      </c>
-      <c r="E44">
-        <v>62.4717</v>
-      </c>
-      <c r="F44">
-        <v>15.6</v>
-      </c>
-      <c r="G44">
-        <v>223492676.177157</v>
       </c>
       <c r="H44">
         <v>74605</v>
@@ -1873,23 +1682,23 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
+      <c r="B45" s="2">
+        <v>42978</v>
       </c>
       <c r="C45">
+        <v>62.6587</v>
+      </c>
+      <c r="D45">
+        <v>15.6</v>
+      </c>
+      <c r="E45">
+        <v>220865009.5258238</v>
+      </c>
+      <c r="F45">
         <v>88430291</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>118939926</v>
-      </c>
-      <c r="E45">
-        <v>62.6587</v>
-      </c>
-      <c r="F45">
-        <v>15.6</v>
-      </c>
-      <c r="G45">
-        <v>220865009.5258238</v>
       </c>
       <c r="H45">
         <v>66683</v>
@@ -1902,23 +1711,23 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
+      <c r="B46" s="2">
+        <v>43008</v>
       </c>
       <c r="C46">
+        <v>62.69</v>
+      </c>
+      <c r="D46">
+        <v>15.4</v>
+      </c>
+      <c r="E46">
+        <v>214149839.3652087</v>
+      </c>
+      <c r="F46">
         <v>70793413</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>104708895</v>
-      </c>
-      <c r="E46">
-        <v>62.69</v>
-      </c>
-      <c r="F46">
-        <v>15.4</v>
-      </c>
-      <c r="G46">
-        <v>214149839.3652087</v>
       </c>
       <c r="H46">
         <v>37832</v>
@@ -1931,23 +1740,23 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
+      <c r="B47" s="2">
+        <v>43039</v>
       </c>
       <c r="C47">
+        <v>62.9405</v>
+      </c>
+      <c r="D47">
+        <v>14.4</v>
+      </c>
+      <c r="E47">
+        <v>231988686.9733223</v>
+      </c>
+      <c r="F47">
         <v>84061123</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>101629519</v>
-      </c>
-      <c r="E47">
-        <v>62.9405</v>
-      </c>
-      <c r="F47">
-        <v>14.4</v>
-      </c>
-      <c r="G47">
-        <v>231988686.9733223</v>
       </c>
       <c r="H47">
         <v>39888</v>
@@ -1960,23 +1769,23 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
+      <c r="B48" s="2">
+        <v>43069</v>
       </c>
       <c r="C48">
+        <v>63.303</v>
+      </c>
+      <c r="D48">
+        <v>13.7</v>
+      </c>
+      <c r="E48">
+        <v>222724820.499779</v>
+      </c>
+      <c r="F48">
         <v>80995282</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>132400254</v>
-      </c>
-      <c r="E48">
-        <v>63.303</v>
-      </c>
-      <c r="F48">
-        <v>13.7</v>
-      </c>
-      <c r="G48">
-        <v>222724820.499779</v>
       </c>
       <c r="H48">
         <v>43937</v>
@@ -1989,23 +1798,23 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
+      <c r="B49" s="2">
+        <v>43100</v>
       </c>
       <c r="C49">
+        <v>63.6871</v>
+      </c>
+      <c r="D49">
+        <v>13.3</v>
+      </c>
+      <c r="E49">
+        <v>309641621.6535358</v>
+      </c>
+      <c r="F49">
         <v>70062387</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>167592795</v>
-      </c>
-      <c r="E49">
-        <v>63.6871</v>
-      </c>
-      <c r="F49">
-        <v>13.3</v>
-      </c>
-      <c r="G49">
-        <v>309641621.6535358</v>
       </c>
       <c r="H49">
         <v>61579</v>
@@ -2018,23 +1827,23 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
+      <c r="B50" s="2">
+        <v>43131</v>
       </c>
       <c r="C50">
+        <v>63.8271</v>
+      </c>
+      <c r="D50">
+        <v>13.2</v>
+      </c>
+      <c r="E50">
+        <v>222756847.5722999</v>
+      </c>
+      <c r="F50">
         <v>56030311</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>112009670</v>
-      </c>
-      <c r="E50">
-        <v>63.8271</v>
-      </c>
-      <c r="F50">
-        <v>13.2</v>
-      </c>
-      <c r="G50">
-        <v>222756847.5722999</v>
       </c>
       <c r="H50">
         <v>49358</v>
@@ -2047,23 +1856,23 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
+      <c r="B51" s="2">
+        <v>43159</v>
       </c>
       <c r="C51">
+        <v>64.11539999999999</v>
+      </c>
+      <c r="D51">
+        <v>13.2</v>
+      </c>
+      <c r="E51">
+        <v>247885537.2935573</v>
+      </c>
+      <c r="F51">
         <v>73867956</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>117153338</v>
-      </c>
-      <c r="E51">
-        <v>64.11539999999999</v>
-      </c>
-      <c r="F51">
-        <v>13.2</v>
-      </c>
-      <c r="G51">
-        <v>247885537.2935573</v>
       </c>
       <c r="H51">
         <v>43415</v>
@@ -2076,23 +1885,23 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
+      <c r="B52" s="2">
+        <v>43190</v>
       </c>
       <c r="C52">
+        <v>65.2715</v>
+      </c>
+      <c r="D52">
+        <v>12.9</v>
+      </c>
+      <c r="E52">
+        <v>323355331.789095</v>
+      </c>
+      <c r="F52">
         <v>76969008</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>112575291</v>
-      </c>
-      <c r="E52">
-        <v>65.2715</v>
-      </c>
-      <c r="F52">
-        <v>12.9</v>
-      </c>
-      <c r="G52">
-        <v>323355331.789095</v>
       </c>
       <c r="H52">
         <v>53331</v>
@@ -2105,23 +1914,23 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
+      <c r="B53" s="2">
+        <v>43220</v>
       </c>
       <c r="C53">
+        <v>65.57470000000001</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>273890527.8022107</v>
+      </c>
+      <c r="F53">
         <v>83756622</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>121676038</v>
-      </c>
-      <c r="E53">
-        <v>65.57470000000001</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
-      </c>
-      <c r="G53">
-        <v>273890527.8022107</v>
       </c>
       <c r="H53">
         <v>46193</v>
@@ -2134,23 +1943,23 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
+      <c r="B54" s="2">
+        <v>43251</v>
       </c>
       <c r="C54">
+        <v>66.1431</v>
+      </c>
+      <c r="D54">
+        <v>12.7</v>
+      </c>
+      <c r="E54">
+        <v>270186023.8060364</v>
+      </c>
+      <c r="F54">
         <v>83865807</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>137513319</v>
-      </c>
-      <c r="E54">
-        <v>66.1431</v>
-      </c>
-      <c r="F54">
-        <v>12.7</v>
-      </c>
-      <c r="G54">
-        <v>270186023.8060364</v>
       </c>
       <c r="H54">
         <v>46253</v>
@@ -2163,23 +1972,23 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
+      <c r="B55" s="2">
+        <v>43281</v>
       </c>
       <c r="C55">
+        <v>66.907</v>
+      </c>
+      <c r="D55">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>255020417.1766233</v>
+      </c>
+      <c r="F55">
         <v>82116923</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>125835667</v>
-      </c>
-      <c r="E55">
-        <v>66.907</v>
-      </c>
-      <c r="F55">
-        <v>13</v>
-      </c>
-      <c r="G55">
-        <v>255020417.1766233</v>
       </c>
       <c r="H55">
         <v>63892</v>
@@ -2192,23 +2001,23 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
+      <c r="B56" s="2">
+        <v>43312</v>
       </c>
       <c r="C56">
+        <v>67.7221</v>
+      </c>
+      <c r="D56">
+        <v>13.6</v>
+      </c>
+      <c r="E56">
+        <v>243913778.9341567</v>
+      </c>
+      <c r="F56">
         <v>90223491</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>113095505</v>
-      </c>
-      <c r="E56">
-        <v>67.7221</v>
-      </c>
-      <c r="F56">
-        <v>13.6</v>
-      </c>
-      <c r="G56">
-        <v>243913778.9341567</v>
       </c>
       <c r="H56">
         <v>65677</v>
@@ -2221,23 +2030,23 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
+      <c r="B57" s="2">
+        <v>43343</v>
       </c>
       <c r="C57">
+        <v>69.1096</v>
+      </c>
+      <c r="D57">
+        <v>14.1</v>
+      </c>
+      <c r="E57">
+        <v>260903247.8090236</v>
+      </c>
+      <c r="F57">
         <v>96159748</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>145746614</v>
-      </c>
-      <c r="E57">
-        <v>69.1096</v>
-      </c>
-      <c r="F57">
-        <v>14.1</v>
-      </c>
-      <c r="G57">
-        <v>260903247.8090236</v>
       </c>
       <c r="H57">
         <v>66784</v>
@@ -2250,23 +2059,23 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
+      <c r="B58" s="2">
+        <v>43373</v>
       </c>
       <c r="C58">
+        <v>69.9774</v>
+      </c>
+      <c r="D58">
+        <v>14.6</v>
+      </c>
+      <c r="E58">
+        <v>252205224.5267374</v>
+      </c>
+      <c r="F58">
         <v>81183572</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>94449073</v>
-      </c>
-      <c r="E58">
-        <v>69.9774</v>
-      </c>
-      <c r="F58">
-        <v>14.6</v>
-      </c>
-      <c r="G58">
-        <v>252205224.5267374</v>
       </c>
       <c r="H58">
         <v>43018</v>
@@ -2279,23 +2088,23 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
+      <c r="B59" s="2">
+        <v>43404</v>
       </c>
       <c r="C59">
+        <v>72.2672</v>
+      </c>
+      <c r="D59">
+        <v>14.3</v>
+      </c>
+      <c r="E59">
+        <v>261175574.8554217</v>
+      </c>
+      <c r="F59">
         <v>105272592</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>79503287</v>
-      </c>
-      <c r="E59">
-        <v>72.2672</v>
-      </c>
-      <c r="F59">
-        <v>14.3</v>
-      </c>
-      <c r="G59">
-        <v>261175574.8554217</v>
       </c>
       <c r="H59">
         <v>39465</v>
@@ -2308,23 +2117,23 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
+      <c r="B60" s="2">
+        <v>43434</v>
       </c>
       <c r="C60">
+        <v>74.6114</v>
+      </c>
+      <c r="D60">
+        <v>14.5</v>
+      </c>
+      <c r="E60">
+        <v>238847784.7068224</v>
+      </c>
+      <c r="F60">
         <v>73432470</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>137811617</v>
-      </c>
-      <c r="E60">
-        <v>74.6114</v>
-      </c>
-      <c r="F60">
-        <v>14.5</v>
-      </c>
-      <c r="G60">
-        <v>238847784.7068224</v>
       </c>
       <c r="H60">
         <v>39263</v>
@@ -2337,23 +2146,23 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
+      <c r="B61" s="2">
+        <v>43465</v>
       </c>
       <c r="C61">
+        <v>77.18810000000001</v>
+      </c>
+      <c r="D61">
+        <v>15.1</v>
+      </c>
+      <c r="E61">
+        <v>350772633.7392376</v>
+      </c>
+      <c r="F61">
         <v>87338877</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>116181310</v>
-      </c>
-      <c r="E61">
-        <v>77.18810000000001</v>
-      </c>
-      <c r="F61">
-        <v>15.1</v>
-      </c>
-      <c r="G61">
-        <v>350772633.7392376</v>
       </c>
       <c r="H61">
         <v>55282</v>
@@ -2366,23 +2175,23 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
+      <c r="B62" s="2">
+        <v>43496</v>
       </c>
       <c r="C62">
+        <v>81.03530000000001</v>
+      </c>
+      <c r="D62">
+        <v>15.5</v>
+      </c>
+      <c r="E62">
+        <v>244004467.7831325</v>
+      </c>
+      <c r="F62">
         <v>64960550</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>88983423</v>
-      </c>
-      <c r="E62">
-        <v>81.03530000000001</v>
-      </c>
-      <c r="F62">
-        <v>15.5</v>
-      </c>
-      <c r="G62">
-        <v>244004467.7831325</v>
       </c>
       <c r="H62">
         <v>49225</v>
@@ -2395,23 +2204,23 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
+      <c r="B63" s="2">
+        <v>43524</v>
       </c>
       <c r="C63">
+        <v>82.0249</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>242386734.1499325</v>
+      </c>
+      <c r="F63">
         <v>65624992.00000001</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>92832684</v>
-      </c>
-      <c r="E63">
-        <v>82.0249</v>
-      </c>
-      <c r="F63">
-        <v>17</v>
-      </c>
-      <c r="G63">
-        <v>242386734.1499325</v>
       </c>
       <c r="H63">
         <v>23682</v>
@@ -2424,23 +2233,23 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
+      <c r="B64" s="2">
+        <v>43555</v>
       </c>
       <c r="C64">
+        <v>82.6061</v>
+      </c>
+      <c r="D64">
+        <v>16.7</v>
+      </c>
+      <c r="E64">
+        <v>323885053</v>
+      </c>
+      <c r="F64">
         <v>104189527</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>144930934</v>
-      </c>
-      <c r="E64">
-        <v>82.6061</v>
-      </c>
-      <c r="F64">
-        <v>16.7</v>
-      </c>
-      <c r="G64">
-        <v>323885053</v>
       </c>
       <c r="H64">
         <v>37335</v>
@@ -2453,23 +2262,23 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
+      <c r="B65" s="2">
+        <v>43585</v>
       </c>
       <c r="C65">
+        <v>86.09610000000001</v>
+      </c>
+      <c r="D65">
+        <v>17.7</v>
+      </c>
+      <c r="E65">
+        <v>306858904.5770673</v>
+      </c>
+      <c r="F65">
         <v>103425157</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>132519689</v>
-      </c>
-      <c r="E65">
-        <v>86.09610000000001</v>
-      </c>
-      <c r="F65">
-        <v>17.7</v>
-      </c>
-      <c r="G65">
-        <v>306858904.5770673</v>
       </c>
       <c r="H65">
         <v>37295</v>
@@ -2482,23 +2291,23 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
+      <c r="B66" s="2">
+        <v>43616</v>
       </c>
       <c r="C66">
+        <v>92.5356</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>296620607.9896728</v>
+      </c>
+      <c r="F66">
         <v>101016899</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>135071227</v>
-      </c>
-      <c r="E66">
-        <v>92.5356</v>
-      </c>
-      <c r="F66">
-        <v>18</v>
-      </c>
-      <c r="G66">
-        <v>296620607.9896728</v>
       </c>
       <c r="H66">
         <v>38412</v>
